--- a/biology/Zoologie/Charinus_wanlessi/Charinus_wanlessi.xlsx
+++ b/biology/Zoologie/Charinus_wanlessi/Charinus_wanlessi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus wanlessi est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba[1]. Elle se rencontre dans les provinces de Santiago de Cuba et de Granma[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle se rencontre dans les provinces de Santiago de Cuba et de Granma.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est troglophile[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est troglophile.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 7,2 mm[3].
-La carapace du mâle holotype décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 2,40 mm de long sur 3,20 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 7,2 mm.
+La carapace du mâle holotype décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 2,40 mm de long sur 3,20 mm.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Charinides wanlessi par Quintero en 1983. Elle est placée dans le genre Charinus par Delle Cave en 1986[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Charinides wanlessi par Quintero en 1983. Elle est placée dans le genre Charinus par Delle Cave en 1986.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fred R. Wanless[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fred R. Wanless.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Quintero, 1983 : « Revision of the amblypygid spiders of Cuba and their relationships with the Caribbean and continental American amblypygid fauna. » Uitgaven Natuurwetenschappelijke Studiekring voor Suriname en de Nederlandse Antillen, no 111, p. 1-54 (texte intégral).</t>
         </is>
